--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_119.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_119.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,368 +488,401 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_169</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2697674418604651</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['G:min/D', 'D:7', 'G:min', 'G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>isophonics_218</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_291</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1454741379310345</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min']]</t>
+          <t>[['G', 'C', 'F']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(41.92, 59.04)]</t>
+          <t>[['A', 'D', 'G']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(9.6, 32.34)]</t>
+          <t>[('0:00:05.776000', '0:00:09.009000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:31.434580', '0:00:34.406734')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2202898550724638</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
-        </is>
+          <t>isophonics_296</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_134</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.3348837209302326</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['G:maj', 'C:maj', 'G/3']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(1.68, 5.3)]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(7.8, 13.9)]</t>
+          <t>[('0:00:05.146000', '0:00:09.474000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:02:22.140000', '0:02:26.800000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_200</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.4211538461538462</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
-        </is>
+          <t>schubert-winterreise_162</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>jaah_78</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1609538002980626</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>[['D:7', 'G:maj', 'G:maj'], ['G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(16.34, 44.36)]</t>
+          <t>[['F:7', 'Bb', 'Bb'], ['Bb', 'F:7', 'Bb']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(70.38, 90.98)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>[('0:00:10.200000', '0:00:17.380000'), ('0:00:23.260000', '0:00:26.800000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:43.560000', '0:00:48.100000'), ('0:00:49.560000', '0:00:55.720000')]</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_137</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_227</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.13125</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min'], ['E:7', 'A:min', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_200</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_195</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2589285714285714</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min/b3'], ['E:7', 'A:min', 'D:min']]</t>
+          <t>[['E:min', 'B:maj', 'E:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(7.7, 18.64), (49.06, 57.32)]</t>
+          <t>[['F:min/C', 'C', 'F:min/C']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(5.67204, 8.841564), (20.045192, 25.141972)]</t>
+          <t>[('0:01:21.280000', '0:01:29.420000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:44.160000', '0:00:48.160000')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_38</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_184</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.106312292358804</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['F:hdim7/G#', 'A#:7', 'D#:min']]</t>
-        </is>
+          <t>schubert-winterreise_45</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_34</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1666666666666667</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['A:hdim7/C', 'D:7', 'G:min']]</t>
+          <t>[['C#:hdim7/B', 'B:min', 'C#:hdim7/B', 'B:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(23.84, 31.4)]</t>
+          <t>[['D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(10.42, 14.22)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>[('0:00:05.860000', '0:00:23.820000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:53', '0:01:02')]</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_78</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_59</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1942985746436609</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['A', 'E', 'D', 'A', 'D', 'A', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_17</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_128</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5052631578947369</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['G', 'D', 'C', 'G', 'C', 'G', 'G:maj(*1)/5']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(34.789863, 47.769818)]</t>
+          <t>[['C', 'F', 'C', 'F']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(41.535259, 53.981156)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>[('0:02:18.020000', '0:02:23.320000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:10.634761', '0:00:19.597664')]</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_201</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>jaah_7</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.09288747346072186</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['G:min7', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_203</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_119</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.3794871794871795</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['F:min7', 'Bb:7', 'Eb']]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(60.86, 67.913)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(8.35, 10.7)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
+          <t>[('0:01:06.920000', '0:01:24.540000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:00:34.300000', '0:00:49.840000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_136</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_159</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1651785714285714</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['F:7/D#', 'A#:maj/D', 'F:maj/C']]</t>
-        </is>
+          <t>isophonics_81</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_183</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.425</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['A:7', 'D', 'A/3']]</t>
+          <t>[['B', 'E/5', 'B']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(76.56, 80.8)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(38.689, 45.633)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>[('0:00:58.625147', '0:01:04.604285')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:02:08.540000', '0:02:12.840000')]</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_193</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>jaah_6</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.0833976833976834</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['Cb', 'Gb:7', 'Cb']]</t>
-        </is>
+          <t>isophonics_147</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_59</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3676470588235294</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>[['E', 'A', 'E', 'B']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(46.759, 50.551)]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(14.3, 15.21)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[('0:00:19.435000', '0:00:34.866000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:00:59.220000', '0:01:11.120000')]</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_56</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -852,261 +890,246 @@
           <t>schubert-winterreise_73</t>
         </is>
       </c>
-      <c r="C11" t="n">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
-        </is>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_74</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.3642857142857143</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(21.88, 24.86)]</t>
+          <t>[['E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(61.44, 64.22)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>[('0:01:05.200000', '0:01:07.500000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:37.995918', '0:00:46.610521')]</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_9</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.08307692307692308</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['A:min/C', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_199</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_133</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['F#:min', 'B:7', 'E']]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(8.08, 14.1)]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(28.479798, 31.393902)]</t>
+          <t>[('0:01:01.260000', '0:01:07.540000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:01:00.680000', '0:01:06.800000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_225</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_131</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['E', 'E:7', 'F']]</t>
-        </is>
+          <t>schubert-winterreise_39</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_8</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['D:maj', 'D:7/C', 'D#:maj/A#']]</t>
+          <t>[['B:min', 'F#:7/B', 'F#:(3,5,b7,b9)/B', 'B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(53.673, 60.522)]</t>
+          <t>[['B:min', 'F#:7/B', 'F#:(3,5,b7,b9)/B', 'B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(52.38, 58.42)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>[('0:00:12.440000', '0:00:38.460000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:14.440000', '0:00:47.400000')]</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>jaah_1</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_21</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1252173913043478</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['Bb:7', 'Eb', 'Eb'], ['Eb', 'Eb', 'Eb']]</t>
-        </is>
+          <t>isophonics_123</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>isophonics_6</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7413793103448276</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['G:7', 'C', 'C/b7'], ['C', 'C/7', 'C/b7']]</t>
+          <t>[['E', 'A', 'E', 'A', 'E', 'A', 'E', 'A', 'E', 'A', 'E', 'A', 'E', 'A']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(6.88, 12.97), (0.72, 6.88)]</t>
+          <t>[['D', 'G', 'D', 'G', 'D', 'G', 'D', 'G', 'D', 'G', 'D', 'G', 'D', 'G']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(34.041, 38.588), (52.386, 56.294)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>[('0:00:40.074104', '0:00:54.168616')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:02:13.919000', '0:02:27.191000')]</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_170</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>jaah_79</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.08064516129032258</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['D', 'D/5', 'D', 'D:maj(*1)/#1']]</t>
-        </is>
+          <t>schubert-winterreise_27</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_202</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['Bb', 'Bb', 'Bb', 'Bb']]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(37.077029, 40.734172)]</t>
+          <t>[['C#:(3,5)', 'F:maj/A', 'A#:maj', 'F:maj/C', 'C:7', 'F:maj', 'F:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(0.94, 5.35)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>[('0:01:01.540000', '0:01:07.900000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:01:00.620000', '0:01:06.360000')]</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>jaah_36</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>jaah_25</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.04985007496251874</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_103</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_3</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb', 'Bb']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(54.89, 61.21)]</t>
+          <t>[['C#:maj', 'G#:7', 'C#:maj', 'G#:7', 'C#:maj', 'G#:maj', 'C#:maj', 'G#:maj', 'C#:maj', 'G#:maj', 'C#:maj', 'G#:maj', 'C#:maj', 'F#:7', 'B:maj', 'D#:7/A#', 'A:(3,5)', 'C#:maj', 'A#:(3,5,b7,b9)', 'D#:min/G#', 'F#:maj/G#', 'G#:7', 'C#:maj', 'C#:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(30.41, 35.04)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>[('0:00:00.600000', '0:00:40.540000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:00.480000', '0:00:35.060000')]</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_168</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_198</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2259615384615385</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'F:maj', 'A#:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['E:min', 'B:maj', 'E:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(11.7, 20.02)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(81.42, 90.04)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
